--- a/template/Template-WT-4Extended.xlsx
+++ b/template/Template-WT-4Extended.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MelinaStuff\BAM\WildTrax\WT-Integration\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882A19A8-9197-4515-8C88-6F5E71974B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE016494-0DCB-4BB2-A1EB-FFB3F580B54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11903" yWindow="-98" windowWidth="19395" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template-WT-1Extended" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="109">
   <si>
     <t>Fieldname</t>
   </si>
@@ -348,6 +348,21 @@
   </si>
   <si>
     <t>Number of individual of a species with the same date, time, observer, isHeard, isSeen, distanceband and durationinterval information</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Name of the organization</t>
+  </si>
+  <si>
+    <t>name of the project</t>
+  </si>
+  <si>
+    <t>BAM</t>
   </si>
 </sst>
 </file>
@@ -1286,409 +1301,445 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:AI1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="16" max="16" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>65</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
+      <c r="D2" s="3">
         <v>40337.219444444447</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>57</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="str">
-        <f>CONCATENATE('[1]Template-WT-2Visit'!A2,":",'[1]Template-WT-2Visit'!B2,"_",R2,":","QC-ATLAS_01")</f>
+      <c r="R2" t="str">
+        <f>CONCATENATE('[1]Template-WT-2Visit'!A2,":",'[1]Template-WT-2Visit'!B2,"_",T2,":","QC-ATLAS_01")</f>
         <v>QC-ATLAS:15PM01:1:2010-06-08_05:16:QC-ATLAS_01</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>2010</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>60</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>61</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>2</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3">
+      <c r="D3" s="3">
         <v>40337.219444444447</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>57</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>34</v>
       </c>
-      <c r="P3" t="str">
-        <f>CONCATENATE('[1]Template-WT-2Visit'!A3,":",'[1]Template-WT-2Visit'!B3,"_",R3,":","QC-ATLAS_01")</f>
+      <c r="R3" t="str">
+        <f>CONCATENATE('[1]Template-WT-2Visit'!A3,":",'[1]Template-WT-2Visit'!B3,"_",T3,":","QC-ATLAS_01")</f>
         <v>QC-ATLAS:15PM01:2:2010-06-08_07:16:QC-ATLAS_01</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="S3" s="1">
         <v>2010</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>60</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>59</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>2</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D4" s="3">
         <v>40337.219444444447</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>33</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>34</v>
       </c>
-      <c r="P4" t="str">
-        <f>CONCATENATE('[1]Template-WT-2Visit'!A4,":",'[1]Template-WT-2Visit'!B4,"_",R4,":","QC-ATLAS_01")</f>
+      <c r="R4" t="str">
+        <f>CONCATENATE('[1]Template-WT-2Visit'!A4,":",'[1]Template-WT-2Visit'!B4,"_",T4,":","QC-ATLAS_01")</f>
         <v>QC-ATLAS:15PM01:3:2010-06-08_07:46:QC-ATLAS_01</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="S4" s="1">
         <v>2010</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>60</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>62</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>2</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="D5" s="3">
         <v>40337.302777777775</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>57</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>34</v>
       </c>
-      <c r="P5" t="str">
-        <f>CONCATENATE('[1]Template-WT-2Visit'!A5,":",'[1]Template-WT-2Visit'!B5,"_",R5,":","QC-ATLAS_01")</f>
+      <c r="R5" t="str">
+        <f>CONCATENATE('[1]Template-WT-2Visit'!A5,":",'[1]Template-WT-2Visit'!B5,"_",T5,":","QC-ATLAS_01")</f>
         <v>QC-ATLAS:15PM01:4:2010-06-08_08:16:QC-ATLAS_01</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="S5" s="1">
         <v>2010</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>60</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>61</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>2</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
+      <c r="D6" s="3">
         <v>40337.302777777775</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>34</v>
       </c>
-      <c r="P6" t="str">
-        <f>CONCATENATE('[1]Template-WT-2Visit'!A6,":",'[1]Template-WT-2Visit'!B6,"_",R6,":","QC-ATLAS_01")</f>
+      <c r="R6" t="str">
+        <f>CONCATENATE('[1]Template-WT-2Visit'!A6,":",'[1]Template-WT-2Visit'!B6,"_",T6,":","QC-ATLAS_01")</f>
         <v>QC-ATLAS:15PM01:5:2010-06-08_08:46:QC-ATLAS_01</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="S6" s="1">
         <v>2010</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>60</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>59</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>2</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>5</v>
       </c>
     </row>
@@ -1700,13 +1751,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1724,7 +1778,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1733,26 +1787,26 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1761,26 +1815,26 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1789,54 +1843,54 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1845,68 +1899,68 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1914,13 +1968,13 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>41</v>
+      <c r="D15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1929,12 +1983,12 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1943,110 +1997,110 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2055,54 +2109,54 @@
         <v>92</v>
       </c>
       <c r="D25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -2110,14 +2164,13 @@
       <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="6"/>
+      <c r="D29" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -2125,14 +2178,13 @@
       <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="6"/>
+      <c r="D30" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -2141,13 +2193,13 @@
         <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -2156,13 +2208,13 @@
         <v>6</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -2170,14 +2222,14 @@
       <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>76</v>
+      <c r="D33" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -2186,13 +2238,13 @@
         <v>6</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2201,20 +2253,50 @@
         <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>70</v>
       </c>
     </row>
